--- a/classification/droptc/sentence/neo-bert/freeze/67351593/prediction.xlsx
+++ b/classification/droptc/sentence/neo-bert/freeze/67351593/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7573333978652954</v>
+        <v>0.6690912842750549</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8995409607887268</v>
+        <v>0.997445821762085</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4742587804794312</v>
+        <v>0.4461929500102997</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6809177398681641</v>
+        <v>0.8037829995155334</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.862654447555542</v>
+        <v>0.9997891783714294</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8644223809242249</v>
+        <v>0.9982296824455261</v>
       </c>
     </row>
     <row r="8">
@@ -646,7 +646,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6166768670082092</v>
+        <v>0.9930404424667358</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9193671345710754</v>
+        <v>0.9868741631507874</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2968113124370575</v>
+        <v>0.9930404424667358</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7774965763092041</v>
+        <v>0.9890130758285522</v>
       </c>
     </row>
     <row r="12">
@@ -758,19 +758,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7985855937004089</v>
+        <v>0.9966360330581665</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.836408257484436</v>
+        <v>0.9840127229690552</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7467250227928162</v>
+        <v>0.9875588417053223</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5191622376441956</v>
+        <v>0.5987800359725952</v>
       </c>
     </row>
     <row r="16">
@@ -870,7 +870,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5612872242927551</v>
+        <v>0.8833291530609131</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8919199705123901</v>
+        <v>0.9639037847518921</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3565413653850555</v>
+        <v>0.7082577347755432</v>
       </c>
     </row>
     <row r="19">
@@ -954,7 +954,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -963,10 +963,10 @@
         </is>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5937435030937195</v>
+        <v>0.995130181312561</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9450210928916931</v>
+        <v>0.8769729733467102</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7857457399368286</v>
+        <v>0.9985365867614746</v>
       </c>
     </row>
     <row r="22">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5154165029525757</v>
+        <v>0.9894375801086426</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7553659081459045</v>
+        <v>0.983834981918335</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8158277869224548</v>
+        <v>0.9971446394920349</v>
       </c>
     </row>
     <row r="25">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1131,10 +1131,10 @@
         </is>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9888012409210205</v>
+        <v>0.7270654439926147</v>
       </c>
     </row>
     <row r="26">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.368467777967453</v>
+        <v>0.7559922337532043</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4458702504634857</v>
+        <v>0.9969402551651001</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8627951741218567</v>
+        <v>0.997445821762085</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9244044423103333</v>
+        <v>0.9946415424346924</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8183037042617798</v>
+        <v>0.9656872153282166</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.97995525598526</v>
+        <v>0.9812684655189514</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.7921533584594727</v>
+        <v>0.7234912514686584</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9521856307983398</v>
+        <v>0.9558704495429993</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6618473529815674</v>
+        <v>0.9735695123672485</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.5678883790969849</v>
+        <v>0.9976046085357666</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6600551009178162</v>
+        <v>0.997771680355072</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4930385947227478</v>
+        <v>0.9445069432258606</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9714041352272034</v>
+        <v>0.997251570224762</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8424766063690186</v>
+        <v>0.9838768839836121</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7334362864494324</v>
+        <v>0.5126594305038452</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5392903685569763</v>
+        <v>0.9820205569267273</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3801854848861694</v>
+        <v>0.9792444109916687</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8849543333053589</v>
+        <v>0.9954518675804138</v>
       </c>
     </row>
     <row r="44">
@@ -1659,14 +1659,14 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.396089494228363</v>
+        <v>0.5381413102149963</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.942327618598938</v>
+        <v>0.9417629241943359</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.909733772277832</v>
+        <v>0.9265996813774109</v>
       </c>
     </row>
     <row r="47">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.5838221907615662</v>
+        <v>0.8766137361526489</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6070908904075623</v>
+        <v>0.992866039276123</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8882371783256531</v>
+        <v>0.9978271126747131</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9193671345710754</v>
+        <v>0.9985470175743103</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.7616814374923706</v>
+        <v>0.4495433270931244</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E52" t="b">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.4972670674324036</v>
+        <v>0.586913526058197</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.7470853924751282</v>
+        <v>0.9985470175743103</v>
       </c>
     </row>
     <row r="54">
@@ -1939,14 +1939,14 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.4972670674324036</v>
+        <v>0.8417583703994751</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8925318717956543</v>
+        <v>0.9992620348930359</v>
       </c>
     </row>
     <row r="56">
@@ -1990,19 +1990,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E56" t="b">
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8312629461288452</v>
+        <v>0.9994000196456909</v>
       </c>
     </row>
     <row r="57">
@@ -2018,19 +2018,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E57" t="b">
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8096935153007507</v>
+        <v>0.9874789714813232</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.5041700601577759</v>
+        <v>0.9580532312393188</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.440951019525528</v>
+        <v>0.9935913681983948</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9559332728385925</v>
+        <v>0.9603115916252136</v>
       </c>
     </row>
     <row r="61">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.4630013108253479</v>
+        <v>0.9756776094436646</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7880627512931824</v>
+        <v>0.9913349747657776</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.4315672814846039</v>
+        <v>0.8673264384269714</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.4427507817745209</v>
+        <v>0.7829291820526123</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9391068816184998</v>
+        <v>0.9953645467758179</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.6745309233665466</v>
+        <v>0.9953645467758179</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.7373160719871521</v>
+        <v>0.7984030842781067</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9621061086654663</v>
+        <v>0.9953645467758179</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8478570580482483</v>
+        <v>0.9184352159500122</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8185805678367615</v>
+        <v>0.9566755890846252</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.3169979751110077</v>
+        <v>0.8847496509552002</v>
       </c>
     </row>
     <row r="72">
@@ -2438,19 +2438,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.4733359813690186</v>
+        <v>0.9974527955055237</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9675565361976624</v>
+        <v>0.9768749475479126</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.73335862159729</v>
+        <v>0.8459694981575012</v>
       </c>
     </row>
     <row r="75">
@@ -2522,19 +2522,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E75" t="b">
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.394264280796051</v>
+        <v>0.879360556602478</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8512192368507385</v>
+        <v>0.9768749475479126</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.5323178768157959</v>
+        <v>0.9408925175666809</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7745043039321899</v>
+        <v>0.9768749475479126</v>
       </c>
     </row>
     <row r="79">
@@ -2634,19 +2634,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E79" t="b">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.7050769329071045</v>
+        <v>0.9998778104782104</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.4881285429000854</v>
+        <v>0.9793738126754761</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9193671345710754</v>
+        <v>0.8643386363983154</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.6583719253540039</v>
+        <v>0.9793738126754761</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9193671345710754</v>
+        <v>0.4934743642807007</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.8429794311523438</v>
+        <v>0.4934743642807007</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.8431508541107178</v>
+        <v>0.9999850988388062</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9398542642593384</v>
+        <v>0.9978138208389282</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.780357837677002</v>
+        <v>0.9142433404922485</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.8824923634529114</v>
+        <v>0.9915326237678528</v>
       </c>
     </row>
     <row r="89">
@@ -2914,7 +2914,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2923,10 +2923,10 @@
         </is>
       </c>
       <c r="E89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.4989246726036072</v>
+        <v>0.9368550777435303</v>
       </c>
     </row>
     <row r="90">
@@ -2942,19 +2942,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.5439951419830322</v>
+        <v>0.9965654015541077</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.7741378545761108</v>
+        <v>0.9960333704948425</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9179226756095886</v>
+        <v>0.9953396320343018</v>
       </c>
     </row>
     <row r="93">
@@ -3026,19 +3026,19 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E93" t="b">
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.7573333978652954</v>
+        <v>0.9950929880142212</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.5676025152206421</v>
+        <v>0.9950777292251587</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.8104720115661621</v>
+        <v>0.995607316493988</v>
       </c>
     </row>
     <row r="96">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3119,10 +3119,10 @@
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4924732446670532</v>
+        <v>0.6760358214378357</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.4900746643543243</v>
+        <v>0.8839086890220642</v>
       </c>
     </row>
     <row r="98">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="E98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5586068630218506</v>
+        <v>0.9987509250640869</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9193671345710754</v>
+        <v>0.5031672120094299</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9653204679489136</v>
+        <v>0.9855542182922363</v>
       </c>
     </row>
     <row r="101">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.66683030128479</v>
+        <v>0.9182291030883789</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.5152601003646851</v>
+        <v>0.7967244386672974</v>
       </c>
     </row>
     <row r="103">
@@ -3306,19 +3306,19 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.5210251212120056</v>
+        <v>0.5058932900428772</v>
       </c>
     </row>
     <row r="104">
@@ -3334,19 +3334,19 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E104" t="b">
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.8613868355751038</v>
+        <v>0.8196076154708862</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9206058382987976</v>
+        <v>0.994231641292572</v>
       </c>
     </row>
     <row r="106">
@@ -3390,19 +3390,19 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E106" t="b">
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.3639147579669952</v>
+        <v>0.9418763518333435</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.861436665058136</v>
+        <v>0.8721585273742676</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.7593934535980225</v>
+        <v>0.9605309963226318</v>
       </c>
     </row>
     <row r="109">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3483,10 +3483,10 @@
         </is>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.7626478672027588</v>
+        <v>0.9449828267097473</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9244044423103333</v>
+        <v>0.997445821762085</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.4144127666950226</v>
+        <v>0.9295809268951416</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.7287167310714722</v>
+        <v>0.9310773015022278</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.7862436175346375</v>
+        <v>0.9697516560554504</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9450210928916931</v>
+        <v>0.9465025663375854</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.4705968797206879</v>
+        <v>0.8877927660942078</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.8699924349784851</v>
+        <v>0.9745033979415894</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9391914010047913</v>
+        <v>0.9972866773605347</v>
       </c>
     </row>
     <row r="118">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3735,10 +3735,10 @@
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.6526662707328796</v>
+        <v>0.94754558801651</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9193671345710754</v>
+        <v>0.61857670545578</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9801768064498901</v>
+        <v>0.997445821762085</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.8435474038124084</v>
+        <v>0.9854454398155212</v>
       </c>
     </row>
     <row r="122">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3847,10 +3847,10 @@
         </is>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.4387717247009277</v>
+        <v>0.9987413287162781</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.6104037165641785</v>
+        <v>0.9854454398155212</v>
       </c>
     </row>
     <row r="124">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3903,10 +3903,10 @@
         </is>
       </c>
       <c r="E124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.4465293288230896</v>
+        <v>0.9987413287162781</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.7445444464683533</v>
+        <v>0.9854454398155212</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9789870381355286</v>
+        <v>0.9999740123748779</v>
       </c>
     </row>
     <row r="127">
@@ -3983,14 +3983,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.6325459480285645</v>
+        <v>0.5988399982452393</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.4132523238658905</v>
+        <v>0.997445821762085</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E129" t="b">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.5899760127067566</v>
+        <v>0.5805933475494385</v>
       </c>
     </row>
     <row r="130">
@@ -4062,19 +4062,19 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.8312629461288452</v>
+        <v>0.621683657169342</v>
       </c>
     </row>
     <row r="131">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E131" t="b">
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.3912805020809174</v>
+        <v>0.999686598777771</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9388488531112671</v>
+        <v>0.4177725911140442</v>
       </c>
     </row>
     <row r="133">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4155,10 +4155,10 @@
         </is>
       </c>
       <c r="E133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.4605166912078857</v>
+        <v>0.9900672435760498</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.7865627408027649</v>
+        <v>0.8509076833724976</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9059886932373047</v>
+        <v>0.8536578416824341</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E136" t="b">
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.7246426343917847</v>
+        <v>0.9243203997612</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.8664924502372742</v>
+        <v>0.9931651949882507</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.767159104347229</v>
+        <v>0.8463183045387268</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.8900327086448669</v>
+        <v>0.9969936609268188</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.737713098526001</v>
+        <v>0.9930561184883118</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.3604429960250854</v>
+        <v>0.9816452264785767</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.3725845813751221</v>
+        <v>0.997445821762085</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.7470853924751282</v>
+        <v>0.4810743629932404</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.8248777389526367</v>
+        <v>0.998691737651825</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.8520022630691528</v>
+        <v>0.4810743629932404</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.5080165863037109</v>
+        <v>0.9986128807067871</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.7736766338348389</v>
+        <v>0.9184352159500122</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9468274116516113</v>
+        <v>0.9398119449615479</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9629697799682617</v>
+        <v>0.9220227599143982</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9193671345710754</v>
+        <v>0.6833961009979248</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.5630621910095215</v>
+        <v>0.997445821762085</v>
       </c>
     </row>
     <row r="152">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.396089494228363</v>
+        <v>0.9002560377120972</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9105768203735352</v>
+        <v>0.9996917247772217</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.8144127726554871</v>
+        <v>0.9734810590744019</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.8663169145584106</v>
+        <v>0.9918020367622375</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.8776931166648865</v>
+        <v>0.9465259313583374</v>
       </c>
     </row>
     <row r="157">
@@ -4818,19 +4818,19 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E157" t="b">
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.8096935153007507</v>
+        <v>0.9905746579170227</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9007893204689026</v>
+        <v>0.9694302678108215</v>
       </c>
     </row>
     <row r="159">
@@ -4874,19 +4874,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E159" t="b">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.3912805020809174</v>
+        <v>0.993693470954895</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.8321760892868042</v>
+        <v>0.6144183278083801</v>
       </c>
     </row>
     <row r="161">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4939,10 +4939,10 @@
         </is>
       </c>
       <c r="E161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.7748441100120544</v>
+        <v>0.9976019263267517</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9193671345710754</v>
+        <v>0.9730443954467773</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9422872066497803</v>
+        <v>0.8912292718887329</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.7187486886978149</v>
+        <v>0.9737395048141479</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.8146357536315918</v>
+        <v>0.9966061115264893</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9303658008575439</v>
+        <v>0.952484130859375</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.7771717309951782</v>
+        <v>0.8990300297737122</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9240233302116394</v>
+        <v>0.5812840461730957</v>
       </c>
     </row>
     <row r="169">
@@ -5154,19 +5154,19 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E169" t="b">
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.7246426343917847</v>
+        <v>0.997445821762085</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.7470853924751282</v>
+        <v>0.8990300297737122</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.8808898329734802</v>
+        <v>0.8604117035865784</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.7464958429336548</v>
+        <v>0.997445821762085</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.5392903685569763</v>
+        <v>0.9869431257247925</v>
       </c>
     </row>
     <row r="174">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="E174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.4075197875499725</v>
+        <v>0.9951459765434265</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.5120830535888672</v>
+        <v>0.9869431257247925</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.7690674662590027</v>
+        <v>0.9869431257247925</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.8151979446411133</v>
+        <v>0.9951459765434265</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.4860565960407257</v>
+        <v>0.9872186183929443</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.8309155106544495</v>
+        <v>0.9545373916625977</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.861436665058136</v>
+        <v>0.9953623414039612</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.8010478019714355</v>
+        <v>0.957619845867157</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9700506329536438</v>
+        <v>0.9801718592643738</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.4251918196678162</v>
+        <v>0.9714514017105103</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.7259900569915771</v>
+        <v>0.9991193413734436</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9255173802375793</v>
+        <v>0.9992176294326782</v>
       </c>
     </row>
     <row r="186">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5639,10 +5639,10 @@
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.3937753140926361</v>
+        <v>0.9902238249778748</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.4796663224697113</v>
+        <v>0.9299216866493225</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.5845369696617126</v>
+        <v>0.9961178302764893</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.892973780632019</v>
+        <v>0.9984717965126038</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.7501556277275085</v>
+        <v>0.9998353719711304</v>
       </c>
     </row>
     <row r="191">
@@ -5770,7 +5770,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.5120830535888672</v>
+        <v>0.7585543394088745</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.8096935153007507</v>
+        <v>0.9965388774871826</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9193671345710754</v>
+        <v>0.8788423538208008</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.7224928736686707</v>
+        <v>0.9413664937019348</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.6727836132049561</v>
+        <v>0.8529012799263</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.8067678809165955</v>
+        <v>0.9995858073234558</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9611400961875916</v>
+        <v>0.9994638562202454</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E198" t="b">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.7903699278831482</v>
+        <v>0.9993720650672913</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.4199270009994507</v>
+        <v>0.9459540843963623</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.8991683125495911</v>
+        <v>0.5607181191444397</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9256356358528137</v>
+        <v>0.9979362487792969</v>
       </c>
     </row>
     <row r="202">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6087,10 +6087,10 @@
         </is>
       </c>
       <c r="E202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.5586029291152954</v>
+        <v>0.701618492603302</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.5714289546012878</v>
+        <v>0.8912674784660339</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.5554257035255432</v>
+        <v>0.9440537691116333</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.8690947890281677</v>
+        <v>0.8349942564964294</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.7246426343917847</v>
+        <v>0.9993129968643188</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.4972670674324036</v>
+        <v>0.9626339673995972</v>
       </c>
     </row>
     <row r="208">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6255,10 +6255,10 @@
         </is>
       </c>
       <c r="E208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.5498260259628296</v>
+        <v>0.9442318081855774</v>
       </c>
     </row>
     <row r="209">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="E209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.6773940324783325</v>
+        <v>0.7549809813499451</v>
       </c>
     </row>
     <row r="210">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6311,10 +6311,10 @@
         </is>
       </c>
       <c r="E210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.4556481242179871</v>
+        <v>0.9939131140708923</v>
       </c>
     </row>
   </sheetData>
